--- a/layout.xlsx
+++ b/layout.xlsx
@@ -103,6 +103,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -162,17 +163,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -300,189 +313,189 @@
   </sheetPr>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="29.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="17.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="19.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="16.77"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="16.77"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
+    <row r="5" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="0" t="s">
+    <row r="8" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="0" t="s">
+    <row r="9" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="0" t="s">
+    <row r="11" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="0" t="s">
+    <row r="12" customFormat="false" ht="33.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="0" t="s">
+    <row r="14" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="2" t="s">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="28.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F15" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G19" s="0" t="s">
+    <row r="19" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G19" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="s">
+    <row r="21" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C21" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="0" t="s">
+    <row r="23" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="2" t="s">
+    <row r="24" customFormat="false" ht="33.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F24" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="0" t="s">
+    <row r="29" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F30" s="0" t="s">
+    <row r="30" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F30" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G31" s="0" t="s">
+    <row r="31" customFormat="false" ht="51.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G31" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H32" s="0" t="s">
+    <row r="32" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H32" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E35" s="0" t="s">
+    <row r="35" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E35" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F36" s="0" t="s">
+    <row r="36" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F36" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G37" s="0" t="s">
+    <row r="37" customFormat="false" ht="39.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G37" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H38" s="0" t="s">
+    <row r="38" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H38" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -492,7 +505,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
